--- a/src/assets/prototip.xlsx
+++ b/src/assets/prototip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel\WebstormProjects\Creator-WebSite\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4010CC-6D57-4B17-84EF-15473BD07D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA193605-9E23-4E6B-A770-369F7C2058A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="1116" windowWidth="17280" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="3540" windowWidth="17280" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Данные 1 страницы макета</t>
   </si>
@@ -33,93 +33,9 @@
     <t>Цвет макета, указывается ниже</t>
   </si>
   <si>
-    <t>Название страницы, указывается ниже</t>
-  </si>
-  <si>
-    <t>Описание указывается ниже</t>
-  </si>
-  <si>
-    <t>Контакты, указываются ниже</t>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
-    <t>Данные страницы информации</t>
-  </si>
-  <si>
-    <t>Контактная информация о 1 работнике:</t>
-  </si>
-  <si>
-    <t>Контактная информация о 2 работнике:</t>
-  </si>
-  <si>
-    <t>Контактная информация о 3 работнике:</t>
-  </si>
-  <si>
-    <t>Контактная информация о 4 работнике:</t>
-  </si>
-  <si>
-    <t>Контактная информация о 5 работнике:</t>
-  </si>
-  <si>
-    <t>аобо3</t>
-  </si>
-  <si>
-    <t>цмцумцу</t>
-  </si>
-  <si>
-    <t>уици3м2</t>
-  </si>
-  <si>
-    <t>цвет:</t>
-  </si>
-  <si>
-    <t>Данные о геолокации</t>
-  </si>
-  <si>
-    <t>цвет</t>
-  </si>
-  <si>
-    <t>Указание адреса 1</t>
-  </si>
-  <si>
-    <t>Указание адреса 2</t>
-  </si>
-  <si>
-    <t>Указание адреса 3</t>
-  </si>
-  <si>
-    <t>Доп. Данные</t>
-  </si>
-  <si>
-    <t>Доп.Данные</t>
-  </si>
-  <si>
-    <t>12а13п</t>
-  </si>
-  <si>
-    <t>укртце4</t>
-  </si>
-  <si>
-    <t>Конечная страница</t>
-  </si>
-  <si>
-    <t>Данные 1 поля</t>
-  </si>
-  <si>
-    <t>Данные 2 поля</t>
-  </si>
-  <si>
-    <t>Данные 3 поля</t>
-  </si>
-  <si>
-    <t>Данные 4 поля</t>
-  </si>
-  <si>
-    <t>Поле для вторых данных, указывается ниже</t>
-  </si>
-  <si>
     <t>Здесь могли быть ваши данные, но это демо-версия</t>
   </si>
   <si>
@@ -132,10 +48,133 @@
     <t xml:space="preserve">Я тут сделать </t>
   </si>
   <si>
-    <t>dqegq</t>
-  </si>
-  <si>
-    <t>eb</t>
+    <t>Данны для 1 макета 1 поля</t>
+  </si>
+  <si>
+    <t>Данны для 1 макета 2 поля</t>
+  </si>
+  <si>
+    <t>Данны для 1 макета 3 поля</t>
+  </si>
+  <si>
+    <t>Данны для 1 макета 4 поля</t>
+  </si>
+  <si>
+    <t>Данны для 2 макета 1 поля</t>
+  </si>
+  <si>
+    <t>Данны для 2 макета 2 поля</t>
+  </si>
+  <si>
+    <t>Данны для 2 макета 3 поля</t>
+  </si>
+  <si>
+    <t>Данны для 2 макета 4 поля</t>
+  </si>
+  <si>
+    <t>Данны для 3 макета 1 поля</t>
+  </si>
+  <si>
+    <t>Данны для 3 макета 2 поля</t>
+  </si>
+  <si>
+    <t>Данны для 3 макета 3 поля</t>
+  </si>
+  <si>
+    <t>Данны для 3 макета 4 поля</t>
+  </si>
+  <si>
+    <t>предсавляем</t>
+  </si>
+  <si>
+    <t>цкци</t>
+  </si>
+  <si>
+    <t>цийктт</t>
+  </si>
+  <si>
+    <t>цКТкт</t>
+  </si>
+  <si>
+    <t>цкт</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>цуи</t>
+  </si>
+  <si>
+    <t>Данные для страницы данных</t>
+  </si>
+  <si>
+    <t>1 поле</t>
+  </si>
+  <si>
+    <t>2 поле</t>
+  </si>
+  <si>
+    <t>3 поле</t>
+  </si>
+  <si>
+    <t>Данные для указания контактных данных</t>
+  </si>
+  <si>
+    <t>контакты 1</t>
+  </si>
+  <si>
+    <t>контакты 2</t>
+  </si>
+  <si>
+    <t>контакты 3</t>
+  </si>
+  <si>
+    <t>контакты 4</t>
+  </si>
+  <si>
+    <t>йп</t>
+  </si>
+  <si>
+    <t>уцпуцп</t>
+  </si>
+  <si>
+    <t>цупцуп</t>
+  </si>
+  <si>
+    <t>ывивыи</t>
+  </si>
+  <si>
+    <t>ывиывициу</t>
+  </si>
+  <si>
+    <t>йумйумймйм</t>
+  </si>
+  <si>
+    <t>ыв</t>
+  </si>
+  <si>
+    <t>ывыииииывиывй</t>
+  </si>
+  <si>
+    <t>фыфыфы</t>
+  </si>
+  <si>
+    <t>Ниже укажите что написано будет в разделе 1</t>
+  </si>
+  <si>
+    <t>Ниже укажите что написано будет в разделе 3</t>
+  </si>
+  <si>
+    <t>Ниже укажите что написано будет в разделе 2</t>
+  </si>
+  <si>
+    <t>уцуйуи</t>
+  </si>
+  <si>
+    <t>цуицуИ</t>
+  </si>
+  <si>
+    <t>Киц иуц</t>
   </si>
 </sst>
 </file>
@@ -171,11 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +513,10 @@
     <col min="8" max="8" width="26.6640625" customWidth="1"/>
     <col min="9" max="9" width="26.88671875" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" customWidth="1"/>
-    <col min="13" max="14" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="13" max="13" width="35.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
     <col min="15" max="15" width="17.6640625" customWidth="1"/>
     <col min="16" max="16" width="17.77734375" customWidth="1"/>
     <col min="17" max="17" width="18.21875" customWidth="1"/>
@@ -492,64 +535,62 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -558,86 +599,124 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
       </c>
       <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
         <v>35</v>
       </c>
-      <c r="S3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3">
-        <v>2357</v>
-      </c>
-      <c r="U3">
-        <v>3263</v>
-      </c>
-      <c r="V3">
-        <v>14135</v>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="R1:W1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
